--- a/Shopme Sample Users Data/Shopme Sample Users Data.xlsx
+++ b/Shopme Sample Users Data/Shopme Sample Users Data.xlsx
@@ -454,7 +454,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -485,6 +485,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -571,7 +577,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -1048,7 +1054,7 @@
     <col min="8" max="8" style="11" width="36.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1070,7 +1076,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>

--- a/Shopme Sample Users Data/Shopme Sample Users Data.xlsx
+++ b/Shopme Sample Users Data/Shopme Sample Users Data.xlsx
@@ -454,7 +454,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,12 +485,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -577,7 +571,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">

--- a/Shopme Sample Users Data/Shopme Sample Users Data.xlsx
+++ b/Shopme Sample Users Data/Shopme Sample Users Data.xlsx
@@ -1574,7 +1574,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="23.25">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="23.25">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="23.25">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="23.25">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="23.25">
       <c r="A27" s="6">
         <v>23</v>
       </c>
